--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Stable Angina_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Stable Angina_spec_overall.xlsx
@@ -467,105 +467,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tightness is a common descriptor of angina pain, which supports the diagnosis of Stable Angina.</t>
+          <t>Chest pain described as 'tightness' is a classic symptom of Stable Angina, often associated with myocardial ischemia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shortness of breath is absent.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of shortness of breath, which is often associated with angina, suggests a lower likelihood of Stable Angina.</t>
+          <t>Pain relief with regurgitation suggests a gastrointestinal cause, such as GERD, rather than cardiac ischemia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional) is present.</t>
+          <t>Reports pain location is behind sternum, middle of chest is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Positional pain can indicate cardiac issues, including angina, as it may relate to increased venous return affecting heart workload.</t>
+          <t>Pain located behind the sternum is typical for angina pectoris, which is characteristic of Stable Angina.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If antacids are ineffective, it suggests that the symptoms may not be related to angina or gastroesophageal reflux disease.</t>
+          <t>Heartburn is more indicative of gastroesophageal reflux disease (GERD) than Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Onset of chest pain associated with eating food is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not classic for angina, odynophagia can occur in cases where esophageal spasm mimics angina, suggesting a possible cardiac origin.</t>
+          <t>While not classic, angina can be precipitated by increased cardiac demand after eating, especially in the presence of coronary artery disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dysphagia is not typical for Stable Angina and suggests a different underlying issue, such as esophageal dysfunction.</t>
+          <t>Reflux symptoms are more commonly associated with GERD, which can mimic angina but is not related to cardiac ischemia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Reports pain location is behind sternum, middle of chest is present.</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pain located behind the sternum is characteristic of angina, supporting the diagnosis of Stable Angina.</t>
+          <t>Although not typical, some patients with Stable Angina may report pain with certain physical activities.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Pain previously better with antacids is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can indicate a chronic condition that is not typically associated with Stable Angina.</t>
+          <t>The absence of relief with antacids suggests that the pain may not be related to acid reflux, but the presence of other reflux symptoms still argues against angina.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heartburn can sometimes be confused with angina; its presence may indicate a cardiac issue if associated with other symptoms.</t>
+          <t>Positional changes can affect venous return and cardiac workload, potentially exacerbating angina symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current reflux is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reflux symptoms are more indicative of gastrointestinal issues rather than cardiac problems like Stable Angina.</t>
+          <t>Dysphagia is not a symptom of Stable Angina and suggests an esophageal or other non-cardiac cause.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker often used to treat hypertension and angina, suggesting a potential cardiovascular issue.</t>
+          <t>Amlodipine is often prescribed for angina, suggesting a history of angina symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Previously diagnosed Coronary Artery Disease is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder can be a risk factor for cardiovascular diseases; its absence may suggest a lower risk for stable angina.</t>
+          <t>Absence of coronary artery disease significantly reduces the likelihood of stable angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Women can present with atypical symptoms of angina and may have different risk factors compared to men, which can support the diagnosis.</t>
+          <t>Middle age is a common time for the onset of stable angina due to increased risk of coronary artery disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Previously diagnosed Hyperlipidemia is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is a significant risk factor for coronary artery disease; its absence may indicate a lower likelihood of stable angina.</t>
+          <t>Hyperlipidemia is a major risk factor for coronary artery disease and angina; its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Middle age is a risk factor for coronary artery disease and angina, increasing the likelihood of stable angina.</t>
+          <t>While less common than in males, females can still develop stable angina, especially post-menopause.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
+          <t>prior myocardial infarction is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation exposure can increase the risk of cardiovascular issues; its absence may suggest a lower risk for stable angina.</t>
+          <t>A history of myocardial infarction is a strong risk factor for stable angina; its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>absence of recent medication changes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No other findings support the diagnosis of Stable Angina.</t>
+          <t>Stable medication regimen may suggest controlled angina symptoms.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>type 2 diabetes is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of coronary artery disease significantly reduces the likelihood of stable angina.</t>
+          <t>Diabetes is a significant risk factor for coronary artery disease and angina; its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>absence of environmental allergies</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No other findings support the diagnosis of Stable Angina.</t>
+          <t>Absence of unrelated conditions like allergies does not directly support angina but does not detract from it either.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Previously diagnosed Hyperlipidemia is absent</t>
+          <t>diagnosed hypertension is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a major risk factor for coronary artery disease and angina; its absence further decreases the likelihood of stable angina.</t>
+          <t>Hypertension is a common risk factor for angina; its absence makes angina less likely.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of myocardial infarction is a strong risk factor for coronary artery disease, which is a primary cause of stable angina.</t>
+          <t>A family history of myocardial infarction increases the risk of coronary artery disease, which is a common cause of stable angina.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,63 +779,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use reduces the likelihood of cardiovascular disease, including stable angina.</t>
+          <t>The absence of current tobacco use reduces the risk of coronary artery disease, which is a common cause of stable angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate cardiovascular conditions and is associated with increased risk of angina due to its impact on heart health.</t>
+          <t>Prior tobacco use is a risk factor for coronary artery disease, which can lead to stable angina.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of recent travel may indicate a lack of stressors or changes in routine that could trigger angina, suggesting a lower likelihood of the condition.</t>
+          <t>The absence of alcohol use reduces the risk of coronary artery disease, which can lead to stable angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prior tobacco use is a known risk factor for cardiovascular disease, including stable angina, as it contributes to atherosclerosis.</t>
+          <t>Social stress can exacerbate symptoms of stable angina by increasing cardiac workload.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of a family history of cancer may suggest a lower overall burden of chronic disease, which can correlate with lower cardiovascular risk.</t>
+          <t>The absence of a family history of rheumatoid arthritis does not directly impact the likelihood of stable angina, but it may suggest a lower overall inflammatory burden.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of autoimmune conditions like rheumatoid arthritis can suggest a lower risk of certain cardiovascular complications, indirectly supporting the diagnosis of stable angina.</t>
+          <t>The absence of a family history of cancer does not directly impact the likelihood of stable angina, but it does not detract from the presence of other risk factors.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -845,19 +845,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures may indicate stability in health status, which could argue against the presence of stable angina.</t>
+          <t>The absence of recent medical procedures suggests no recent interventions that might have impacted cardiac health.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of alcohol use can be seen as a positive health behavior, potentially reducing the risk of cardiovascular issues, which may support the diagnosis of stable angina.</t>
+          <t>The absence of recent travel does not directly impact the likelihood of stable angina, but it does not detract from the presence of other risk factors.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may suggest better overall health, which can be associated with a lower risk of cardiovascular issues.</t>
+          <t>The absence of gestational complications does not directly impact the likelihood of stable angina, but it suggests a lower risk of cardiovascular issues related to pregnancy.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can be associated with chronic conditions, including cardiovascular diseases, which may suggest underlying issues such as stable angina.</t>
+          <t>Telangiectasias are not typically associated with Stable Angina, but their presence could suggest vascular issues, which might indirectly relate to coronary artery disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there are no significant peripheral vascular issues, which can sometimes be associated with angina.</t>
+          <t>High blood pressure is a common risk factor for Stable Angina, so its absence reduces the likelihood of the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can indicate vascular changes that may be associated with cardiovascular conditions, potentially supporting the diagnosis of stable angina.</t>
+          <t>Weight loss is not directly related to Stable Angina but could be associated with lifestyle changes or other conditions that might coexist with coronary artery disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice indicates that there are no upper respiratory or laryngeal issues, which can sometimes be confused with angina symptoms.</t>
+          <t>Obesity is a significant risk factor for coronary artery disease, and its absence makes Stable Angina less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>High blood pressure when checked is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of high blood pressure may suggest a lower risk for hypertension-related angina, which can be a factor in stable angina presentations.</t>
+          <t>While high blood pressure is a risk factor for Stable Angina, its absence does not rule out the condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of weakness on exam.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of a cough suggests that there are no respiratory issues, which can sometimes mimic or complicate angina symptoms.</t>
+          <t>Weakness is not a typical finding in Stable Angina, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of obesity can be a favorable factor, as obesity is a risk factor for cardiovascular diseases, including stable angina.</t>
+          <t>Obesity is a risk factor for coronary artery disease, but its absence does not exclude Stable Angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Absence of cough observed.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may indicate that there are no gastrointestinal issues that could be mistaken for angina.</t>
+          <t>Cough is not typically associated with Stable Angina, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Absence of epigastric pain on palpation.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of joint swelling may indicate that there are no inflammatory conditions present, which can sometimes mimic or complicate angina symptoms.</t>
+          <t>Epigastric pain can sometimes be confused with angina, so its absence might slightly favor angina over gastrointestinal causes.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Absence of hoarse voice observed.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of weakness suggests that there are no systemic issues that could complicate the diagnosis of stable angina.</t>
+          <t>A hoarse voice is not related to Stable Angina, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a known risk factor for coronary artery disease, which is often associated with stable angina.</t>
+          <t>Hyperlipidemia is a risk factor for coronary artery disease, which is the underlying cause of stable angina.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a strong positive ANA indicates that autoimmune diseases, which can cause similar symptoms, are unlikely, but this does not directly rule out stable angina.</t>
+          <t>The absence of a strong positive ANA test suggests that autoimmune conditions, which can mimic angina, are less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The absence of a strong positive ANA (Antinuclear Antibody) suggests that autoimmune conditions, which can cause chest pain, are less likely, thereby supporting the likelihood of stable angina.</t>
+          <t>The absence of a strong positive ANA test does not directly support stable angina but rules out autoimmune causes that could mimic angina symptoms.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>While the absence of aspiration is helpful, it does not provide strong evidence against stable angina as it does not directly relate to coronary artery disease.</t>
+          <t>The absence of aspiration on MBS suggests that esophageal causes of chest pain are less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of aspiration indicates that the chest pain is less likely to be due to pulmonary complications, which can mimic angina symptoms.</t>
+          <t>The absence of aspiration on MBS does not directly support stable angina but rules out other causes of chest discomfort related to aspiration.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of ILD does not provide strong evidence against stable angina, as stable angina is primarily related to coronary artery issues rather than lung conditions.</t>
+          <t>The absence of ILD on CT suggests that lung-related causes of chest pain are less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of interstitial lung disease (ILD) reduces the likelihood of pulmonary causes of chest pain, thus supporting the diagnosis of stable angina.</t>
+          <t>The absence of ILD on CT rules out interstitial lung disease, which can cause chest pain similar to angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum does not rule out stable angina, as this finding is more related to other conditions rather than directly indicating coronary artery disease.</t>
+          <t>The absence of a widened mediastinum on CXR suggests that aortic dissection, a serious cause of chest pain, is less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum on chest X-ray (CXR) suggests that there are no significant aortic or mediastinal pathologies, which supports the diagnosis of stable angina.</t>
+          <t>The absence of a widened mediastinum on CXR rules out aortic dissection, which can present with chest pain.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While hyperlipidemia supports the diagnosis of stable angina, it is also a common finding in many patients without stable angina, thus not providing strong evidence against it.</t>
+          <t>While hyperlipidemia is a risk factor for coronary artery disease, its presence alone does not confirm stable angina.</t>
         </is>
       </c>
     </row>
